--- a/data/trans_dic/P44A$endoscopia-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44A$endoscopia-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,61; 100,0</t>
+          <t>28,35; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,2; 54,9</t>
+          <t>15,55; 56,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,91; 41,12</t>
+          <t>21,96; 42,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,91; 92,61</t>
+          <t>36,09; 92,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,41; 66,19</t>
+          <t>13,53; 68,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,73; 33,77</t>
+          <t>14,92; 35,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,49; 89,77</t>
+          <t>47,93; 89,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,48; 49,99</t>
+          <t>19,35; 52,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,12; 36,74</t>
+          <t>21,72; 36,44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,87; 91,26</t>
+          <t>47,31; 91,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,56; 100,0</t>
+          <t>33,81; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,87; 45,56</t>
+          <t>22,64; 45,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,24; 68,39</t>
+          <t>24,95; 67,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,75; 100,0</t>
+          <t>17,94; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,0; 50,24</t>
+          <t>27,54; 50,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,95; 76,18</t>
+          <t>43,83; 75,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40,74; 92,02</t>
+          <t>37,13; 88,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,48; 45,28</t>
+          <t>27,12; 44,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,67; 82,29</t>
+          <t>12,65; 82,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,67; 57,47</t>
+          <t>17,32; 57,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,75; 52,36</t>
+          <t>30,4; 51,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,7; 91,67</t>
+          <t>30,83; 91,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 49,16</t>
+          <t>5,22; 54,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,84; 40,7</t>
+          <t>23,19; 40,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,94; 77,98</t>
+          <t>33,69; 79,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,64; 45,96</t>
+          <t>14,2; 43,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,12; 43,2</t>
+          <t>28,97; 42,73</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,1; 92,12</t>
+          <t>21,45; 90,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,79; 78,99</t>
+          <t>41,45; 78,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,57; 58,93</t>
+          <t>34,89; 60,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,79; 91,36</t>
+          <t>34,79; 91,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>59,89; 94,96</t>
+          <t>55,38; 95,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,22; 60,6</t>
+          <t>41,14; 59,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,14; 82,08</t>
+          <t>40,27; 81,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>55,95; 82,53</t>
+          <t>54,48; 83,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>41,24; 56,52</t>
+          <t>41,48; 56,63</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1136,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,63; 88,19</t>
+          <t>53,04; 88,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1150,29 +1151,29 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,65; 66,64</t>
+          <t>33,78; 65,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>58,72; 100,0</t>
+          <t>65,97; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,76; 100,0</t>
+          <t>27,71; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>49,18; 73,49</t>
+          <t>49,82; 72,59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,58; 88,89</t>
+          <t>31,5; 88,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,48; 89,18</t>
+          <t>23,34; 87,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>31,1; 54,99</t>
+          <t>31,37; 56,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,57; 100,0</t>
+          <t>16,85; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,09; 88,63</t>
+          <t>25,03; 88,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,56; 34,43</t>
+          <t>12,98; 35,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>39,33; 86,48</t>
+          <t>38,86; 86,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>31,49; 79,34</t>
+          <t>32,88; 83,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,92; 43,27</t>
+          <t>26,43; 43,22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>37,53; 86,67</t>
+          <t>40,48; 87,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,97; 81,25</t>
+          <t>50,92; 81,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>37,21; 55,4</t>
+          <t>38,0; 55,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>39,48; 88,47</t>
+          <t>43,23; 89,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>47,06; 84,69</t>
+          <t>48,66; 85,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>28,38; 41,56</t>
+          <t>27,48; 41,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>48,35; 83,6</t>
+          <t>48,02; 82,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>56,25; 79,63</t>
+          <t>55,2; 78,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>34,89; 46,24</t>
+          <t>34,9; 46,16</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>21,25; 64,6</t>
+          <t>19,98; 61,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,12; 62,09</t>
+          <t>22,66; 62,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>42,21; 95,16</t>
+          <t>42,64; 95,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21,78; 78,36</t>
+          <t>21,56; 77,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,93; 76,52</t>
+          <t>18,35; 76,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,87; 45,03</t>
+          <t>32,41; 45,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>28,32; 59,86</t>
+          <t>28,93; 60,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27,25; 61,67</t>
+          <t>26,13; 60,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>40,48; 91,63</t>
+          <t>40,01; 90,05</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>50,73; 71,59</t>
+          <t>51,6; 71,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>43,78; 59,33</t>
+          <t>44,01; 59,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>41,36; 83,49</t>
+          <t>41,3; 83,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>51,54; 71,3</t>
+          <t>51,77; 71,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>45,67; 65,08</t>
+          <t>45,85; 65,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>33,43; 39,8</t>
+          <t>33,06; 39,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>54,16; 68,36</t>
+          <t>54,6; 69,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>47,5; 60,22</t>
+          <t>47,22; 59,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>38,75; 74,49</t>
+          <t>38,95; 72,6</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población al que le han realizado al menor una endoscopia para detectar cáncer de colon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4999</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7482</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22914</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8137</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5875</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8240</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13137</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13357</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>31154</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1972; 6955</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3635; 13292</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>16113; 30960</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3995; 10253</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2136; 10793</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5239; 12404</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8639; 16175</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7577; 20465</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>23565; 39538</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>17758</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6719</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21095</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9433</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3426</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15126</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27191</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10145</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>36220</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11408; 21945</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3151; 9319</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14147; 28658</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5093; 13879</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1023; 5704</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10884; 19862</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19516; 33674</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5578; 13236</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>27659; 45710</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4172</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7195</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>23379</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8403</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17553</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12574</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11431</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>40933</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1166; 7593</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3618; 12053</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>17268; 29482</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4104; 12206</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1042; 10857</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12931; 22572</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7591; 17828</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5799; 17660</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>32612; 48094</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6589</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15740</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24586</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8965</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17001</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>30137</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15554</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>32741</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>54723</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2342; 9875</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10786; 20391</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18392; 31827</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4759; 12494</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11308; 19427</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>24280; 35135</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9907; 20115</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>25304; 38603</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>46345; 63271</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6298</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9496</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5511</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2937</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6919</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11809</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4919</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>16415</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4634; 6298</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2972</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6828; 11331</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2204; 6566</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3989</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4707; 9161</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>8486; 12864</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1929; 6961</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>13357; 19461</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6134</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5624</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>17008</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4167</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5534</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6901</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>10301</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11158</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>23909</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2913; 8227</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2424; 9053</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12214; 22181</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1060; 6292</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2154; 7640</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3966; 10746</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6039; 13442</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6245; 15815</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>18365; 30030</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>10287</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>27142</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>49236</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>14026</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>19385</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>39496</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>24313</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>46527</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>88732</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>6357; 13755</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>20529; 32811</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>40128; 58755</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>8894; 18313</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>13720; 24006</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>31359; 47035</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>17420; 29845</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>37823; 53665</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>76685; 101418</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>10853</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>10819</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>302714</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>7489</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>6747</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>49930</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>18341</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>17566</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>352643</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>5376; 16447</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>5983; 16629</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>159446; 356457</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3244; 11683</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2472; 10282</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>42174; 59032</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>12136; 25563</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>10421; 24246</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>201692; 453882</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>67090</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>82704</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>470429</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>66129</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>65140</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>174304</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>133220</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>147844</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>644732</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>56432; 78039</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>70282; 95764</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>320782; 647154</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>55368; 76114</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>53248; 76196</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>158068; 188697</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>118116; 149759</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>130232; 164680</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>488756; 910962</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44A$endoscopia-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44A$endoscopia-Provincia-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una endoscopia para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una endoscopia para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1670,7 +1670,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una endoscopia para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una endoscopia para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
